--- a/ParametersForDimReduceClassify.xlsx
+++ b/ParametersForDimReduceClassify.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9140FFA6-1943-4D7A-A395-104E60380B50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B5A026-E309-48AE-86D3-8D4E298235D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3622" yWindow="3799" windowWidth="14744" windowHeight="7333" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="676" windowWidth="18853" windowHeight="11320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="88">
   <si>
     <t>no_dims</t>
   </si>
@@ -185,30 +193,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RBF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GA-BP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GA-RBF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSO-BP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSO-RBF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dimReduce</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -328,6 +316,26 @@
   </si>
   <si>
     <t>executionTimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TANSIG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GA_TANSIG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GA_RBF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSO_TANSIG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSO_RBF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -757,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.95" x14ac:dyDescent="0.3"/>
@@ -774,8 +782,8 @@
     <col min="7" max="7" width="7.09765625" style="2" customWidth="1"/>
     <col min="8" max="8" width="7" style="2" customWidth="1"/>
     <col min="9" max="9" width="6.09765625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9" style="2"/>
+    <col min="10" max="10" width="11.3984375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.09765625" style="2" customWidth="1"/>
     <col min="12" max="12" width="6.5" style="2" customWidth="1"/>
     <col min="13" max="13" width="6.69921875" style="2" customWidth="1"/>
     <col min="14" max="14" width="9" style="2"/>
@@ -783,7 +791,7 @@
     <col min="16" max="19" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -827,131 +835,148 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="2" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="2" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" s="2" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="5" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="5" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="5" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="5" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" s="5" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <v>10</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="5" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="5" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="B10" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E10" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" s="5" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
+      <c r="N10" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="5" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E11" s="5">
         <v>12</v>
       </c>
-      <c r="N11" s="5">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="5" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
+      <c r="O11" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="5" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E12" s="5">
         <v>12</v>
       </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
       <c r="O12" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="5" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="5" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E13" s="5">
         <v>12</v>
       </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
       <c r="O13" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="5" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" s="5" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E14" s="5">
         <v>12</v>
@@ -960,12 +985,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="5" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" s="5" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E15" s="5">
         <v>12</v>
@@ -974,31 +999,46 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="5" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" s="8" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="5">
-        <v>10</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="5">
         <v>12</v>
       </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
       <c r="O16" s="7" t="s">
         <v>48</v>
       </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
     </row>
     <row r="17" spans="1:19" s="8" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -1009,9 +1049,7 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
@@ -1019,10 +1057,10 @@
     </row>
     <row r="18" spans="1:19" s="8" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1030,7 +1068,9 @@
         <v>5</v>
       </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="G18" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -1038,7 +1078,9 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
+      <c r="O18" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
@@ -1046,30 +1088,28 @@
     </row>
     <row r="19" spans="1:19" s="8" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5">
-        <v>5</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="b">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5">
         <v>1</v>
       </c>
-      <c r="H19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
@@ -1077,28 +1117,30 @@
     </row>
     <row r="20" spans="1:19" s="8" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B20" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="5">
+        <v>12</v>
+      </c>
       <c r="F20" s="5">
         <v>1</v>
       </c>
       <c r="G20" s="5"/>
-      <c r="H20" s="5">
-        <v>1</v>
-      </c>
+      <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
+      <c r="O20" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
@@ -1106,19 +1148,17 @@
     </row>
     <row r="21" spans="1:19" s="8" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5">
         <v>12</v>
       </c>
-      <c r="F21" s="5">
-        <v>1</v>
-      </c>
+      <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -1137,10 +1177,10 @@
     </row>
     <row r="22" spans="1:19" s="8" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1166,28 +1206,26 @@
     </row>
     <row r="23" spans="1:19" s="8" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5">
-        <v>12</v>
-      </c>
+      <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
+      <c r="L23" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
@@ -1195,26 +1233,32 @@
     </row>
     <row r="24" spans="1:19" s="8" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" s="5">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5">
+        <v>20</v>
+      </c>
+      <c r="D24" s="5">
         <v>10</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5">
+        <v>12</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
+      <c r="O24" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
@@ -1222,32 +1266,26 @@
     </row>
     <row r="25" spans="1:19" s="8" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B25" s="5">
-        <v>10</v>
-      </c>
-      <c r="C25" s="5">
-        <v>20</v>
-      </c>
-      <c r="D25" s="5">
-        <v>10</v>
-      </c>
-      <c r="E25" s="5">
-        <v>12</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="I25" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
@@ -1255,10 +1293,10 @@
     </row>
     <row r="26" spans="1:19" s="8" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B26" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1282,10 +1320,10 @@
     </row>
     <row r="27" spans="1:19" s="8" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B27" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1293,10 +1331,10 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5">
+        <v>30</v>
+      </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
@@ -1309,10 +1347,10 @@
     </row>
     <row r="28" spans="1:19" s="8" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1336,10 +1374,10 @@
     </row>
     <row r="29" spans="1:19" s="8" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B29" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1349,13 +1387,17 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5">
+        <v>10</v>
+      </c>
+      <c r="K29" s="5">
         <v>30</v>
       </c>
-      <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
+      <c r="O29" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
@@ -1363,10 +1405,10 @@
     </row>
     <row r="30" spans="1:19" s="8" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B30" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1375,14 +1417,12 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="5">
-        <v>30</v>
-      </c>
-      <c r="K30" s="5">
-        <v>30</v>
-      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
       <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
+      <c r="M30" s="5">
+        <v>0</v>
+      </c>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
@@ -1392,13 +1432,17 @@
     </row>
     <row r="31" spans="1:19" s="8" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B31" s="5">
+        <v>2</v>
+      </c>
+      <c r="C31" s="5">
+        <v>40</v>
+      </c>
+      <c r="D31" s="5">
         <v>10</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -1407,11 +1451,11 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
-      <c r="M31" s="5">
-        <v>0</v>
-      </c>
+      <c r="M31" s="5"/>
       <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
+      <c r="O31" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
@@ -1419,13 +1463,13 @@
     </row>
     <row r="32" spans="1:19" s="8" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B32" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C32" s="5">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D32" s="5">
         <v>10</v>
@@ -1440,9 +1484,7 @@
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
-      <c r="O32" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="O32" s="5"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
@@ -1450,17 +1492,13 @@
     </row>
     <row r="33" spans="1:19" s="8" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="5">
-        <v>10</v>
-      </c>
-      <c r="C33" s="5">
-        <v>2</v>
-      </c>
-      <c r="D33" s="5">
-        <v>10</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -1469,7 +1507,9 @@
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
+      <c r="M33" s="5">
+        <v>0</v>
+      </c>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
@@ -1479,10 +1519,10 @@
     </row>
     <row r="34" spans="1:19" s="8" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -1494,9 +1534,7 @@
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
-      <c r="M34" s="5">
-        <v>0</v>
-      </c>
+      <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
@@ -1506,14 +1544,16 @@
     </row>
     <row r="35" spans="1:19" s="8" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="E35" s="5">
+        <v>3</v>
+      </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -1529,33 +1569,6 @@
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
     </row>
-    <row r="36" spans="1:19" s="8" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="5">
-        <v>10</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5">
-        <v>3</v>
-      </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1567,12 +1580,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.296875" customWidth="1"/>
     <col min="2" max="2" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.3984375" customWidth="1"/>
     <col min="4" max="4" width="10.19921875" customWidth="1"/>
@@ -1598,96 +1612,96 @@
     <row r="1" spans="1:23" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="V1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="b">
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="D2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2">
         <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2" t="b">
         <v>0</v>
@@ -1714,51 +1728,51 @@
         <v>20</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R2" s="2">
         <v>20</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="T2" s="2">
         <v>20</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="V2" s="2">
         <v>20</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="b">
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
       </c>
       <c r="E3" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G3" s="2">
         <v>20</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I3" s="2" t="b">
         <v>0</v>
@@ -1785,51 +1799,51 @@
         <v>20</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R3" s="2">
         <v>20</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="T3" s="2">
         <v>20</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="V3" s="2">
         <v>20</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
       </c>
       <c r="E4" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G4" s="2">
         <v>20</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I4" s="2" t="b">
         <v>0</v>
@@ -1850,57 +1864,57 @@
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P4" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R4" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="T4" s="2">
         <v>20</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="V4" s="2">
         <v>20</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
       </c>
       <c r="E5" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G5" s="2">
         <v>20</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I5" s="2" t="b">
         <v>0</v>
@@ -1927,51 +1941,51 @@
         <v>20</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R5" s="2">
         <v>20</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="T5" s="2">
         <v>20</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="V5" s="2">
         <v>20</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2" t="b">
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D6" s="2">
         <v>3</v>
       </c>
       <c r="E6" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G6" s="2">
         <v>20</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I6" s="2" t="b">
         <v>0</v>
@@ -1998,51 +2012,51 @@
         <v>20</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R6" s="2">
         <v>20</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="T6" s="2">
         <v>20</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="V6" s="2">
         <v>20</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="B7" s="2" t="b">
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
       </c>
       <c r="E7" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G7" s="2">
         <v>20</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I7" s="2" t="b">
         <v>0</v>
@@ -2069,30 +2083,30 @@
         <v>20</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R7" s="2">
         <v>20</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="T7" s="2">
         <v>20</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="V7" s="2">
         <v>20</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>

--- a/ParametersForDimReduceClassify.xlsx
+++ b/ParametersForDimReduceClassify.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B5A026-E309-48AE-86D3-8D4E298235D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0ABC682-6AAD-4472-8DBF-0368076090C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="676" windowWidth="18853" windowHeight="11320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7444" yWindow="2858" windowWidth="10312" windowHeight="8186" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
   <si>
     <t>no_dims</t>
   </si>
@@ -336,6 +336,18 @@
   </si>
   <si>
     <t>PSO_RBF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiddenNumOptimization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stopNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -767,7 +779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -1578,10 +1590,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1607,9 +1619,10 @@
     <col min="21" max="21" width="10.69921875" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
     <col min="23" max="23" width="12.59765625" customWidth="1"/>
+    <col min="24" max="24" width="21.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.95" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="9" t="s">
         <v>52</v>
@@ -1677,8 +1690,17 @@
       <c r="W1" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="X1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>83</v>
       </c>
@@ -1748,8 +1770,17 @@
       <c r="W2" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="X2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
@@ -1819,8 +1850,17 @@
       <c r="W3" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="X3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>84</v>
       </c>
@@ -1864,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P4" s="2">
         <v>16</v>
@@ -1890,8 +1930,17 @@
       <c r="W4" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="X4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>85</v>
       </c>
@@ -1961,8 +2010,17 @@
       <c r="W5" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="X5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>86</v>
       </c>
@@ -2032,8 +2090,17 @@
       <c r="W6" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="X6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>87</v>
       </c>
@@ -2103,8 +2170,17 @@
       <c r="W7" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="X7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>80</v>
       </c>
@@ -2124,7 +2200,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:23" ht="14.95" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2142,7 +2218,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:23" ht="14.95" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2160,7 +2236,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:23" ht="14.95" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2178,7 +2254,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:23" ht="14.95" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2196,7 +2272,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:23" ht="14.95" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2214,7 +2290,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:23" ht="14.95" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2232,7 +2308,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:23" ht="14.95" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2250,7 +2326,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:23" ht="14.95" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>

--- a/ParametersForDimReduceClassify.xlsx
+++ b/ParametersForDimReduceClassify.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0ABC682-6AAD-4472-8DBF-0368076090C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F7F818-4FF3-40EC-BF2E-3A91E9C67C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7444" yWindow="2858" windowWidth="10312" windowHeight="8186" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="399" yWindow="1141" windowWidth="21511" windowHeight="11321" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,385 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{E72A4C09-1E10-4136-9E1C-F411F57A573B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+执行分类之前是否要对数据进行降维处理</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{C0C71C11-96DC-459C-B3BB-13279F1D2ADE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+训练集占比</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{34F1FFA5-3243-4ACD-A2A0-6B1EE661984E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+选择分类方式：
+1.nprtool；
+2.classificationLearner；
+3.ClassDemo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{3AD3E8FA-774E-485C-880A-90AE5F3EAD56}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+重复计算的次数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{D6505EAF-31E0-4566-AD8F-24BB2898236D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+第一隐含层节点数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{0A2797B7-4377-4F54-A456-D9B20D182F2D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+隐含层的层数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{B5F421D2-40F7-4D00-979A-12E14DADDA0A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+附加的第一个隐含层（即第2隐含层）的节点数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{B6E83A82-A322-4BEC-BCC8-A2B3A92AF6E4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+附加的第四个隐含层（即第5隐含层）的节点数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{1E1CEADF-55A5-4CC0-9577-4A72AD165AC2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+是否要对隐含层节点数进行优化(研究网络宽度对分类性能的影响)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{D807E59F-DE88-48D9-AFD2-97DA6D7CBE94}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+对隐含层节点数进行优化时所使用的最小节点数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{4AFC9458-A4D0-4E98-AD1B-64980ADEB607}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+对隐含层节点数进行优化时所使用的最大节点数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{A40C2B03-9D01-473B-9080-18B17539EBA5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+是否要对隐含层的层数进行优化(研究网络深度对分类性能的影响)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{C2E49C29-5774-468D-9E90-F70A709C5C07}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+对隐含层的层数进行优化时所使用的最小附加层数（即在单隐含层的基础上想要额外添加的层数）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{A28E0FD3-A05D-4917-9CA2-0441990AAC82}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+对隐含层的层数进行优化时所使用的最大附加层数（即在单隐含层的基础上想要额外添加的层数）</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="94">
   <si>
     <t>no_dims</t>
   </si>
@@ -348,6 +725,18 @@
   </si>
   <si>
     <t>stopNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hLayerNumOptimization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startLayerNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stopLayerNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -355,7 +744,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,6 +789,21 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -780,7 +1184,7 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.95" x14ac:dyDescent="0.3"/>
@@ -852,7 +1256,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -861,7 +1265,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -869,7 +1273,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
@@ -877,7 +1281,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
         <v>10</v>
@@ -888,7 +1292,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="5" customFormat="1" ht="15.55" x14ac:dyDescent="0.3">
@@ -1589,11 +1993,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1620,9 +2024,11 @@
     <col min="22" max="22" width="11" customWidth="1"/>
     <col min="23" max="23" width="12.59765625" customWidth="1"/>
     <col min="24" max="24" width="21.8984375" customWidth="1"/>
+    <col min="27" max="27" width="20.5" customWidth="1"/>
+    <col min="28" max="29" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.95" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="9" t="s">
         <v>52</v>
@@ -1699,8 +2105,17 @@
       <c r="Z1" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="AA1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>83</v>
       </c>
@@ -1779,8 +2194,17 @@
       <c r="Z2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="AA2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
@@ -1859,8 +2283,17 @@
       <c r="Z3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="AA3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>84</v>
       </c>
@@ -1907,13 +2340,13 @@
         <v>2</v>
       </c>
       <c r="P4" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>75</v>
       </c>
       <c r="R4" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>76</v>
@@ -1939,8 +2372,17 @@
       <c r="Z4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="AA4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>85</v>
       </c>
@@ -2019,8 +2461,17 @@
       <c r="Z5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="AA5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>86</v>
       </c>
@@ -2099,8 +2550,17 @@
       <c r="Z6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="AA6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>87</v>
       </c>
@@ -2179,8 +2639,17 @@
       <c r="Z7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="AA7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>80</v>
       </c>
@@ -2200,7 +2669,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="14.95" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2218,7 +2687,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="14.95" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2236,7 +2705,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="14.95" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2254,7 +2723,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="14.95" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2272,7 +2741,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="14.95" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2290,7 +2759,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="14.95" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2308,7 +2777,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="14.95" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2326,7 +2795,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="14.95" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2510,5 +2979,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ParametersForDimReduceClassify.xlsx
+++ b/ParametersForDimReduceClassify.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F7F818-4FF3-40EC-BF2E-3A91E9C67C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD785125-CE67-48D4-9F5F-96565F20292C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="399" yWindow="1141" windowWidth="21511" windowHeight="11321" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-532" yWindow="2060" windowWidth="21157" windowHeight="9748" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -400,8 +401,174 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{51E0BDB0-FBE5-4F7F-B11F-A1235BE9A0DE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+样本总数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{BA378F3F-668A-4187-B87B-0785EB176F2F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+类别总数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{B9D71159-CE90-41F9-B7B5-477015B44D24}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+输入层节点数，即降维数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{DCF89DD6-8FE3-4028-AFAF-46AC76092B65}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+训练集样本数占样本总数的比例</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{0DD92FD7-BB06-443C-A449-677861314AB1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+隐含层节点数下届</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{D231DBA2-3C5E-4C48-A2EC-6FE5A1F44464}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+隐含层节点数上界</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="111">
   <si>
     <t>no_dims</t>
   </si>
@@ -737,6 +904,65 @@
   </si>
   <si>
     <t>stopLayerNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indian_pines</t>
+  </si>
+  <si>
+    <t>indian_pines_corrected</t>
+  </si>
+  <si>
+    <t>KSC</t>
+  </si>
+  <si>
+    <t>pavia</t>
+  </si>
+  <si>
+    <t>paviaU</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Salinas</t>
+  </si>
+  <si>
+    <t>Salinas_corrected</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Ns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ni</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nh_low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nh_high</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plotMSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plotFitness</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1184,7 +1410,7 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.95" x14ac:dyDescent="0.3"/>
@@ -1994,10 +2220,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+      <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2028,7 +2254,7 @@
     <col min="28" max="29" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.95" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="9" t="s">
         <v>52</v>
@@ -2114,8 +2340,14 @@
       <c r="AC1" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="AD1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>83</v>
       </c>
@@ -2203,8 +2435,14 @@
       <c r="AC2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="AD2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
@@ -2292,8 +2530,14 @@
       <c r="AC3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>84</v>
       </c>
@@ -2381,8 +2625,14 @@
       <c r="AC4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>85</v>
       </c>
@@ -2470,8 +2720,14 @@
       <c r="AC5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>86</v>
       </c>
@@ -2559,8 +2815,14 @@
       <c r="AC6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>87</v>
       </c>
@@ -2648,8 +2910,14 @@
       <c r="AC7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>80</v>
       </c>
@@ -2669,7 +2937,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:29" ht="14.95" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2687,7 +2955,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:29" ht="14.95" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2705,7 +2973,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:29" ht="14.95" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2723,7 +2991,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:29" ht="14.95" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2741,7 +3009,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:29" ht="14.95" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2759,7 +3027,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:29" ht="14.95" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2777,7 +3045,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:29" ht="14.95" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2795,7 +3063,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:29" ht="14.95" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" ht="14.95" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2981,4 +3249,369 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21787508-91AE-4B1A-B0DE-CF889C06949D}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.8984375" customWidth="1"/>
+    <col min="2" max="2" width="9.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10249</v>
+      </c>
+      <c r="C2" s="2">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F2" s="2">
+        <f>ROUND(B2*E2,0)</f>
+        <v>2050</v>
+      </c>
+      <c r="G2" s="2">
+        <f>F2/(10*(D2+C2))</f>
+        <v>9.7619047619047628</v>
+      </c>
+      <c r="H2" s="2">
+        <f>F2/(2*(D2+C2))</f>
+        <v>48.80952380952381</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10249</v>
+      </c>
+      <c r="C3" s="2">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F10" si="0">ROUND(B3*E3,0)</f>
+        <v>2050</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G10" si="1">F3/(10*(D3+C3))</f>
+        <v>9.7619047619047628</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H10" si="2">F3/(2*(D3+C3))</f>
+        <v>48.80952380952381</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5211</v>
+      </c>
+      <c r="C4" s="2">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>1042</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="1"/>
+        <v>5.7888888888888888</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="2"/>
+        <v>28.944444444444443</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="2">
+        <v>148152</v>
+      </c>
+      <c r="C5" s="2">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>29630</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>211.64285714285714</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="2"/>
+        <v>1058.2142857142858</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="2">
+        <v>42776</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>8555</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>61.107142857142854</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="2"/>
+        <v>305.53571428571428</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3248</v>
+      </c>
+      <c r="C7" s="2">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>650</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>3.4210526315789473</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="2"/>
+        <v>17.105263157894736</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="2">
+        <v>54129</v>
+      </c>
+      <c r="C8" s="2">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>10826</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>51.55238095238095</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="2"/>
+        <v>257.76190476190476</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="2">
+        <v>54129</v>
+      </c>
+      <c r="C9" s="2">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>10826</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>51.55238095238095</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="2"/>
+        <v>257.76190476190476</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2832</v>
+      </c>
+      <c r="C10" s="2">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>566</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>2.83</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="2"/>
+        <v>14.15</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.95" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>